--- a/biology/Histoire de la zoologie et de la botanique/Ludolph_Christian_Treviranus/Ludolph_Christian_Treviranus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludolph_Christian_Treviranus/Ludolph_Christian_Treviranus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludolph Christian Treviranus est un naturaliste allemand, né le 18 septembre 1779 à Brême et mort le 6 mai 1864 à Bonn.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Joachim Johann Treviranus, son frère est le naturaliste Gottfried Reinhold Treviranus (1776-1837). Il obtient son doctorat de médecine à l’université de Iéna en 1801. Il devient le troisième professeur de médecine au Lyceum de Brême en 1807. Il devient professeur d’histoire naturelle à Rostock en 1812, professeur de botanique et directeur du jardin botanique de Breslau en 1816 enfin professeur à Bonn.
 Il est notamment l’auteur de :
